--- a/data/input/absenteeism_data_11.xlsx
+++ b/data/input/absenteeism_data_11.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87973</v>
+        <v>58228</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marina Vieira</t>
+          <t>Bernardo Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,142 +490,142 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>11640.78</v>
+        <v>5687.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>957</v>
+        <v>43536</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Camila Castro</t>
+          <t>Davi Lucas Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>6424.95</v>
+        <v>5706.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78322</v>
+        <v>30574</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Melissa Ramos</t>
+          <t>Benício da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>10680.24</v>
+        <v>10893.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30719</v>
+        <v>77705</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eloah Ferreira</t>
+          <t>Luana Novaes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>8844.559999999999</v>
+        <v>11911.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96232</v>
+        <v>33035</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Joaquim Cardoso</t>
+          <t>Ana Júlia Caldeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>9661.6</v>
+        <v>8607.469999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81155</v>
+        <v>52175</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Olivia Castro</t>
+          <t>Mirella Azevedo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>7717.27</v>
+        <v>7361.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>55473</v>
+        <v>33275</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beatriz da Costa</t>
+          <t>Ana Gomes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>6763.33</v>
+        <v>9415.290000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70766</v>
+        <v>77513</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Isaac Moreira</t>
+          <t>Vitor Hugo Caldeira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>7185.25</v>
+        <v>8075.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73677</v>
+        <v>99008</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lucca Barros</t>
+          <t>Nathan Souza</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>12332.64</v>
+        <v>7522.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4083</v>
+        <v>69934</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatriz Cunha</t>
+          <t>João da Conceição</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>6721.21</v>
+        <v>2595.5</v>
       </c>
     </row>
   </sheetData>
